--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/77_Uşak_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/77_Uşak_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4895B655-F362-4550-94B3-6AFE086C706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01332F66-6C3F-4B2A-8202-64359B21EBA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{732113B6-BA46-4299-9335-8432F3FD8F42}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="687" xr2:uid="{D9661723-A2D7-4898-A607-8C6D7ABFEE98}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -991,15 +991,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{CC9DE569-16AA-4B01-8120-68AEBD678CF1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{1BD5ADB5-59D4-4F14-AFDD-682EC0776BD7}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{0FFC6DC7-7BAB-4796-870C-F9507497588E}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{12C4D464-CBDB-4994-B58A-16619119F80F}"/>
-    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{FC5724BA-7E7B-4767-9BCA-AAA36D8BEF4D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{C5DA7424-A2BD-49E8-9C17-99D37C5906FA}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{B83C4171-B9E0-4014-A55C-D8098405D3AE}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{0F68217F-5CB1-4EF6-912A-8412504489BD}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{BBB0438E-6617-4052-B611-E458EAA7663F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{77DFB7F4-0048-4139-B71F-27CB5EC1D9C3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{E1C4F81F-C9D8-40B2-AA26-FBE681FB4599}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{0F3DF6B6-2C19-4E22-80B6-ADD9ED52F067}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{5342C7F0-F5B1-4393-A828-08C581D1F3DB}"/>
+    <cellStyle name="Normal 3 2" xfId="6" xr:uid="{DD559F73-927A-40DA-ABB8-AA66D708351B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{F07A6598-9EE9-4D23-AFAA-036A5A18727F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{86CAE422-0F5E-4849-BDBE-FA1E1644D846}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{1CA1B052-3DB2-46BA-81AF-2E43ED6943E0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{31AAB848-B48D-4BDF-89F4-4072F0FD7716}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1369,7 +1369,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8980D10A-2681-4B76-84C3-EA97DFD4529B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D64A564-AAC6-444F-8360-6AF79085BFC6}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2613,18 +2613,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3CBDB5C4-FA5A-476F-A337-A8028508882C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0210668A-E6A4-4756-848F-B94A4F98D998}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4FB0FD0-FE24-4306-81AB-1CB8FA3187AA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{75289351-7CEE-4B3D-8136-246F27105FD2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8DFE92E4-98D5-46C7-B097-4177204F3B09}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88EDF33B-4BDE-4386-A5FC-247944CB4D8A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9151C94-1C31-42C4-945E-E046632BB768}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD21C12F-6182-4000-99D2-A255D82AEF80}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{702603CD-5B42-4CD1-A5D9-DE7507D2758D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FB6C1B2-45D6-49AF-83AE-DE9DF9E0A7B5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7622BD7E-9E83-4C88-BA3C-6B7392DE38C7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{55700EAE-856A-4E36-972F-2FA77E48AF67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07A40D50-B599-41AA-A6FB-DC94187F81E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F745438-4D94-44D8-B343-0A5F0BFD1200}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35070A3B-2BD3-4E3C-99C2-293831960241}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9BD4CBE5-0BDD-4A25-B257-3AEF0F2B72F2}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BA14DB2C-2983-416C-AEAF-DBC3E6194682}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8124702B-4FDD-4DD1-85B2-8FCD189F3170}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{04780B95-30C2-4604-933B-707E7CF87B35}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52D25719-3BD2-45D3-9A5C-E76C887DE6E5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{282FCA39-3BED-495F-AA6E-D9C6BBBABE00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{34C0C5AB-8160-4E31-AC49-F1E945B896A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C48B40A4-AD45-48BD-A03C-8FA8960E050B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8F41CD6-A196-4710-8B4D-1F44DE34CF27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2637,7 +2637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE8CB67-1AAC-48F6-8F60-C4C2355F09FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9228C810-1F13-4F98-AC0C-A756DAA2AF8F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3862,18 +3862,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D991E52E-E8AF-4D7C-8F36-4D51FB18B0FF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F48F391E-D382-4AC7-9C30-609723EDC51A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7341AA85-BBAF-4CFA-9962-D41BE0B539A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8061FA62-5A9B-48F8-BA73-748AE7E3E72D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E65D0F1A-0A7D-49FB-AE09-C23405813A38}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1136E634-4C35-402A-B646-3471D936C083}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94CEE40C-C1CE-4166-AEAC-336DC400448D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{705ECD6D-68F5-43E2-BAE2-543B3C4D2DF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{493C16C1-BE77-4387-BC40-B872A46A639A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{511A6FD0-C2EA-42CC-9CCB-129685D10B32}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD8219ED-2513-4D8F-92D7-72F0BB35CEF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F9F30F1C-00E7-4CFF-BD1C-69D042D02F10}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{03CBB1C2-006A-4E74-9C42-FF7ADE5DB98D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FE9A797D-ACA6-4EF8-9B30-ACB45DCE0D23}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{69D61E8C-03BA-484E-AF71-C60E9222BFD7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BEE44F46-1BE2-42ED-8218-A961D3474241}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{88382935-557E-4638-BBDF-0936D437C9C2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85ABD487-FD9A-4EEA-B7F0-C92277519135}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{142C2D2C-2DC7-43BE-9805-6817159393BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C42144F9-B4FE-440D-A417-BBF14A04A0EB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C407B539-0975-41E2-88C9-A41003BAB42B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDC25C58-8C54-468D-A51D-2ECFA928BEAA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2670EEFE-C358-4615-AEB8-002B6D1EC6D5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7937723F-528B-440D-A709-E02B9D7CC702}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3886,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88FF944-FC8D-4DB0-BE0A-AE7961CD7119}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA340629-B273-400B-AAB2-93DF5D6DAD74}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5111,18 +5111,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5C8DA7F-8A32-46A4-98DA-BF4F1B0F9F10}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2A96023-D0E6-4789-B1CB-2848CC0D8211}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6314B544-F427-4B9F-B18E-36EF2D69BB54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4B7535A1-83D2-4AED-9162-6290000A0523}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9858F5C2-4696-4384-A4DD-3715B42FD863}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A2D8178-47F2-493E-A725-F6EFAD7E4C28}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{163950C4-A6B1-4E69-9780-20E92D602796}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7CBA38A-4C78-4280-B3D8-C4DDDEED5339}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AD007603-A85D-48E3-9A68-2C7E0E414B97}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{17568067-BF48-4C0F-BE5D-F931022346B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5FAC9FE2-0607-489D-B17E-7CEE1BE0989C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15C3FAE3-CBED-4907-A70A-4BD2B74343F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2BFFCDC8-DAC8-4225-B2F4-D2E7224A09EC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F949441-43F7-416E-A5A8-127D651C4E2F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FC0535F2-B525-4CCE-8A49-81E56BD7AA30}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EDDEFCE-BDFD-4F69-9600-F8A6762E2AA0}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{4B76882C-EF40-4A4D-86A2-767B222C80D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{298FFFFB-361E-421B-9F49-75651491E1DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{81C93A68-702D-4AA0-AA30-AA0655D2CB3E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{60ECF588-761B-44C8-A9AF-841D79B361EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE782903-2C51-436D-A59C-98FBBE242F38}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6F4D6071-663A-414B-BE1D-536DB73249EB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{44AEACB9-5CBB-4A64-8529-114014760B01}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{342A6543-AFBD-4327-AF7E-96454B9FA144}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5135,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E45DD8-5AC5-49B3-878E-475E2D947530}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2164AAA-CC70-4205-B8A0-188DCF907DD8}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6360,18 +6360,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6F75B16-0950-466C-B8AC-B1625074B39A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1164C762-5ED3-4C11-98C5-7EA83757E1EC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BA22F200-ECEF-42E5-9839-C74C63315F2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0C86455-A3CA-42D0-8C7F-ED68ADF58E1F}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B6FC9C84-50AE-4DE8-84C8-550842A9D8F9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F88A0186-3B7A-4C03-8B3F-B5253924F87B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D2AABAE-2FFB-497A-B6DC-56C95B15755E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F7AE9A1-5B92-456A-AC5F-EE9150AADBBD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0B06795B-C821-4B9B-8C5B-5BBD04B0AEFF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88BBDBB3-174A-44DE-85CB-8B09260051DD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{174ED655-7407-41F1-A713-47CF4BD7FCAC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5936FFD-EBE8-4A71-84EB-2B66C45CA53C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4006C516-1730-42C1-AE7B-4D10167F1AFC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6C4E8207-3EC3-407A-80F5-CDC9467D767C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{35710859-F043-4AA8-ACEA-8B324D6C54E0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{060AF804-BB10-4244-973F-80FDD7B12E14}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ADCEF49C-8C46-4673-BC8A-43CD1F0C2C96}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E4A259B-65FF-4A78-9E53-FC7DD7A5472D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7142BAA0-1746-47AA-AE80-1D268E109560}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09C8F50D-0D49-4786-B68D-824FEA0AE1D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E7C82B3D-C081-4EF8-B776-52A7C48FA9F9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E04C5A3E-5823-4D47-8663-DEEB4FF0D03A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6326A718-9065-4C6D-ADF6-5B2296127A84}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5949B9A1-1026-4BF2-91FB-9847E138F6CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6384,7 +6384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F2C2361-7A3B-4255-8037-D7304212812B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC7C59C-A98B-471E-BD3B-0C5D52CC45A2}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7625,18 +7625,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35B4A94D-1BEF-4A22-A2BB-5074482BC6AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6146196-9E56-428C-A3A1-6749A02865E4}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{56C72E8A-2154-4A19-9D64-2451190CBAC3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0BBBB57D-A256-4640-9195-BA3A43C46F2A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7FB5629C-58DE-4D9A-A29C-35AEE1451C56}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{41F76497-772D-4224-8D83-EAE3D8EFF911}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{615A0EEA-1A80-433D-B573-1F01871E91EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4836F5A3-0CA0-4DC1-AB16-67F0C69D4C02}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82D841B9-108E-476D-8E98-118355CE5839}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{547EE1FC-1F99-4238-A727-34BBAA2CF672}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB5DA71F-0CCE-4997-9602-18F3114F13CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2577CDCE-E4D0-4A68-BE78-849547151602}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A941499-4324-4892-9066-71E044644E8C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE58CC7B-FC73-49CE-99E0-8E8809A54DA4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6FC2509-6E3F-4840-A5BF-68A8F9A38D9C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9066E3C5-8FF7-4C72-8C6F-243E12CEF583}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C87EBF0A-D9EC-4E97-B7AC-32BDDFDB8208}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF52A78B-C53C-4DB5-8D24-77D19B4F504B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11B5A08E-10D0-4C12-A934-3C6486D01172}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{54F86D7E-4CBE-4406-B99D-CD1390F1AA58}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D43A21F1-7875-4363-83A5-C460AE436260}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AE05801E-1F2E-4311-9EFE-0A4A5279C835}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1954817D-BEDD-4D62-B099-0D9B9DDE60CB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{077438FE-76A5-448E-A26A-9EF7266BB7F7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7649,7 +7649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3C9ADA-7F54-42DC-9F0C-ABE6CF779E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A63EA6-F6DB-40A6-8B10-3631A8F80CD8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8890,18 +8890,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE96C2F2-F098-4416-9798-00D98DFB976D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96A8AADF-0BAC-4F00-95A8-FAEE622B4208}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D02688D5-B282-4CF5-BC2B-800C77FC5753}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFF33E33-E980-44F0-85E1-FCD716F8C66D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{18649481-1E04-4347-BF46-851EDD47F570}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C09F7EC-03CF-4897-9416-9C827FDC4CAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0298FE70-AB14-4D58-BFAD-025D40FB3FED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FAB6F6C9-42BB-4E8A-A081-B37299D56477}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{36CFFD8D-607A-401D-9DAD-49B5362DF647}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3E06D92-0D70-47A0-AED2-D16EA9511072}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A6218BC7-DED0-4146-887A-2E6DD0ADE67E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6060CF13-03F3-4826-80F2-ED546628C469}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5D2B4F8-EDE6-474F-96E4-1D8DC750D75D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{716AED13-C492-4769-ADC4-53B2BE7533AB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4BA68782-5995-44E1-BB83-AFBE9DD17BE6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78D0FB26-02F9-4718-9F74-E7E812BB70C9}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{530A3FA3-1263-438F-8911-C45256242820}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{09AA0D07-21F7-4284-AAF4-6E5DC5993A9E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4C05DEB-04E4-4E4C-872C-5067C2B268CA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AE56DB5C-0CF3-42F3-AB97-0C36DEB44D69}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53A27DD7-1587-40B2-BFA8-3B306313C5B4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{080CDA90-66FD-42BC-B37D-F1BB93611F1A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{35A61F19-B164-4300-8466-A20B4538C820}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{845B99FF-E3CF-41F7-AD1B-8AD33F2EB760}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8914,7 +8914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB376210-5755-41E1-9DD8-10AB5A0817AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0618548-338A-45E9-AA45-4F6FDEC718C0}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10155,18 +10155,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{153EED90-777E-475D-A341-A3832315C748}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DB65A74-812E-405A-A790-39A04F636527}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8722A0D-6621-4EA3-A0BC-4B0F01B58CFF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89D544FD-4404-4FA2-B387-E869A10FF77A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{816EF1FF-BE4D-4D49-9A77-312A0472F49A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04D4B7CE-E6AC-4D9D-B1BC-6C1274C6C0CE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F8F6EE21-475D-4CAB-8BD4-E04C6527E804}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{32DC913E-C71E-4538-87EA-5271025A715E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{062A7750-7EEB-493A-8619-438D903CAA01}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4671021F-C888-40C9-A689-C50DBB9F3E0E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2999357F-959B-4C84-9CA6-EA291B81FD45}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AA46308B-48BF-4E30-AAE9-0389C9B7D158}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D35BB201-63BA-4045-AF26-48B2BCC1CA16}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F0B87507-3168-4D71-BC83-000124A6F734}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{72094570-FA0E-4E8B-89AF-10FD4A7A80C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{982C2C2C-ECCE-4AE2-9E0F-A8936B59B91B}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C3CCCE0C-C54B-42DC-890A-700B7B0A1524}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AC99C451-1140-4808-9E1F-4A399A5781CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FC7F38C2-23BD-4C1D-AC63-C594B1D66F6A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{23E788D0-1968-4871-A1A7-FB5C2D08802F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8939A991-7136-4E78-AACD-35F2E7A75BCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E842434D-14B4-42E1-98A4-E07091B69D67}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{037A8CB1-1334-4486-98D0-E9D21543750A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9E63F043-9DFC-41F7-B5F5-3482BBCAD35B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10179,7 +10179,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0352D71A-ED63-4C4A-A19F-C1797A541326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB43E1-18B3-409F-ABD7-FE407DCE9793}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11420,18 +11420,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3207C9C8-950F-4084-A707-E4116B0A7438}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{658F56E8-ADE4-4724-AE0C-BB6DC9A0D3F6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{23C3D593-1A75-4317-95F5-AEAACF81E761}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{987D7FC9-1A75-45F9-9DE0-BE4B55DC7137}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E7D53581-07B8-4056-91DB-7F2465C77615}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1FF291CD-A3E0-4BDA-8CD8-6EAA2856850E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDFC88B2-1794-436F-B8DA-9A9701ED017E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F652CF5-996A-4446-8A4F-9B63B37D5B5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82258531-4AD1-4A9A-90AF-D6C3B555FE5F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8693999-E8A1-41FA-A220-9FE3D30E326D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E1F0956F-1BCA-480D-A774-68CFD6A15C7C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C26DC1A5-224B-4F36-8956-B0E177B7888E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E90FAC7E-A2A3-483B-98BE-1F82FF5ADE96}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D14A57D-AE52-4245-96A6-44865FE53AE3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{082C4418-3F22-4577-8BEF-BD4777B8AEB1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38535718-37D2-48EF-A37F-69B0A8DC4A77}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E0584B47-C478-4FEA-9CEC-B0B976AB334E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{84113BC0-FB8B-4208-BA53-BAC63B8ED7F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{72C03C9F-07C7-48E8-B3EF-F5AB76E126A5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3503E2B5-71F8-4F6F-A768-A441A21BF5DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE98082F-884E-4310-A591-C3D63467D72D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D69F1B8D-0E60-4AC1-B1FE-11CF931CBBDD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6C5A5DD9-2583-4585-97F7-A164D3C050B4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51792AEE-A2DD-486C-AEF7-88F823CD6BD1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11444,7 +11444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB01C19-7478-4071-AB50-F2E83A2FA311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674EBB8E-6236-4C91-B8E0-250A295AA1B5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12685,18 +12685,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{342C84BF-6256-4ED1-A059-D55F076DDB62}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DAB6F607-6898-499B-A0EA-FEF80BB0199D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{413DC6F3-B3C1-4221-A8BD-4A158FE80A2D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6E7F576-66EE-44BA-95D9-80DA48044FA9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{EC04AE0A-62AF-43E0-9264-B297E6D413DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B9CBF75D-D430-45F5-A5AF-CA35EF4E6E01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B75C1613-EDAD-4ABD-8E0A-BCA445D50D6D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D239A1BB-69B4-4F6F-8DAB-AEB4229B369B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A6EEF44-0F79-4EBC-9628-7240ECBB9CAA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BB6F8D4D-AC25-4836-9723-144856027709}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D0277A5-C827-4DF0-B417-06B7048D6F16}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0B70C98-48D6-4EBC-8980-ED2FFDE0CCA1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7098ECC2-0ADE-48B7-A20B-49DD0BE4D16C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37647BD2-34E1-4400-8437-9E18FEA0F7F9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A2D86D0-4495-43A9-BDD2-5ECDD79DCE11}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3DF7F12E-1689-44EF-BD0B-E1B01D1E731C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9276764E-A535-4C0F-83AF-F039483B6942}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAFF4A0F-93BA-4EEF-BC5B-FCC4BFBEB876}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39A2653B-2B7F-44AE-BBA0-10BD7B64B320}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{618E6621-C8FE-4ADE-A086-8B952229DC00}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{84A44BEC-9E47-4BC0-B84C-1D2A7A02B2DB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CDEABE05-8387-40EE-806C-B1414693013F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4F74B36-3771-4F3E-845A-CF6EA5859A06}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9DDEEB8-00EC-4A37-881D-4C70B612412D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12709,7 +12709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C400E2-9C96-46AF-AEEB-8CA69DA0FE98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D53545-22AC-48C2-9199-B19AE7CD3F4E}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13942,18 +13942,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDA38257-4D8F-4597-A8D9-70F3A7D65189}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6F0E9BC1-0E0C-4B3E-B4EC-513A74449328}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FFD06DDD-ECB8-4D18-8E8D-E611FFD3A101}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3FC3BCE9-61B6-4504-9992-D8C88264EFB7}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{182589DE-574B-4A84-A1EB-3B950FDFA41B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD0848FA-3DB4-48D5-88BD-760FBCCC0CFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A192CD6-5F87-49C6-8F16-6CE07AA67C16}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62D59403-5A29-4839-A260-667D03E67AA1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D8D086B-7DDC-4466-921D-B79F2795F068}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8A6110BF-EAE8-4F19-86A1-44BAC2ACFCC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F316F98B-BB5E-4EE2-B220-5B2286AC4055}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D490DACF-7F11-4F22-A220-7FA0F85F9D7A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AC1EFF19-09C1-4E1A-B59C-04600EF0C73B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F87891AE-E6AB-4299-8865-2B49C0B213B9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3AC5491E-AE14-4824-AB35-5B486C0DBEC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C614DF10-82D3-43BF-B936-033EDE66B4C8}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{45601D7A-D0A5-457D-AB4A-EBA726CEBBE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{73E4C460-91AE-4F26-99AE-DE83D9957BFC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5074E39C-0253-48D9-98C5-9F58CBC4B69C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8192AB24-AAD7-49E7-B334-0552347A1EE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BC04D9A0-BF94-4660-BCE0-F82C366707C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A746C4F-BA5C-46E1-81F0-329FD1B24D10}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8933F4F7-F76F-4C18-B6F8-AC592CD69149}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3B7572AD-E13B-4A21-B4D2-34402B7DD1DB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13966,7 +13966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C375859-948A-4229-839A-0D2A236BA7C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2112BFB-7DC5-441C-A1D7-91C305898FB1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15199,18 +15199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{779AF2F8-CEA5-49A5-BF8C-8B5805CDE2B7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E546724-A3A5-4E1A-A488-97AAAE9B2B8B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{226FAC79-2D2D-4E52-BD8C-E372F1704240}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E24434CE-685D-44B4-9A7F-5409D7880235}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8AA1E9AA-69F7-4778-B4C2-0ECF8BF463F7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3DA219DA-FDE8-4826-9CFE-E291517E687B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13232B4D-9048-4C0C-9DDF-5B0716592176}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9F4720A-F43A-4250-A923-F69BDA5D6CBF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1F56B67B-17CC-46A1-BC3F-F6665EE0CCB9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{246E1FCE-BAE0-433B-82E2-E013463F12E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FCE04AAE-8965-4A01-8B39-CAA1520F08FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B08C659-B676-4B04-8BE7-97255F0EE334}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{345E0D83-BCD1-4AA8-8A70-32B3C7325C1F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7655F450-C6F9-4DAA-A3EC-3E330E13A418}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{13801982-4586-497D-BA69-E63E38298878}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{916317F3-07DA-486F-B2F7-2965A5698A97}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{668A0DB9-D324-4436-A67F-9CAB8E8131D2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{79962E2C-B4E0-45D5-85B8-A2B823E472FE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{184963AD-A0AA-41D1-B5FA-511F0FB808FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCD23EF6-29B6-4BA7-BF75-EDE57D7AFB3B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1285EE09-E591-443B-963C-2ED5415EFEDE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE1DAF7B-90F8-4CD4-9852-EB13CFE9430A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{921A53CD-1308-4F87-B5D4-757A77AAF7F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D92D7BFA-1366-4982-846C-7CCE636D4019}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15223,7 +15223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3E1817-3F98-4390-AE33-DD166A924378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDD422C-5D0F-4D9F-B44F-08D3F9142230}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16456,18 +16456,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{125FDED6-A370-47AB-85DE-0B4DEC5BA9DE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ABD2A2BE-74FD-4FE4-9A5C-26E1A0F65F07}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B4B96953-395A-467B-BD10-ED398159DD45}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{95C552B3-4AC7-427E-9C18-9A6B33491344}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{769326FA-1881-4E05-98C1-8BB6DDF5858A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDB9CB66-F4CA-43D3-95F9-995357F12CA6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9E7854AF-6056-4A60-9472-956EEE2F6E7C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{66AD2169-F722-4A44-919D-E983590D6BAA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8B65636-443E-4D0C-AB27-7A8B62418F04}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{800D02F0-CD9F-46FB-B4E6-E7BE54D94F29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9C7A8F5C-3958-4CD7-8380-971A0ADF01B9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{900D14DA-0C36-4056-A2F8-284CE3B811AF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{557D2167-535B-45FA-9A6E-6653EBFCCE18}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C4E74C2-67A7-4E57-85F6-9A52A4F0EEAB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4F2EB8BC-55C2-462E-890C-612307260A90}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B6287F67-9DA6-4DD0-AD17-E70876A8B257}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7FEC8378-11EE-4680-9FF8-69BB2B62932A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0CACA3E-1AB8-41A8-B4F8-8F4158E877AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE72B317-4D45-4733-A4EB-4B3EA3E2794D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC28EFE6-FDBE-40C6-BCAE-21C5D2E65FA3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5685C933-1DBC-4BDB-A2A9-28C8D1BF5E60}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{806BFA64-B62B-47B4-BF7D-F04A79396F63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA1596D8-EC5A-44C5-92C6-4022995FB599}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EB861B0-DEDF-4E2C-972C-9FA79D3764C4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
